--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.3403067928456</v>
+        <v>128.7315975287526</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.7630109233712</v>
+        <v>176.1362509760247</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.1379095300275</v>
+        <v>159.326054391703</v>
       </c>
       <c r="AD2" t="n">
-        <v>104340.3067928456</v>
+        <v>128731.5975287527</v>
       </c>
       <c r="AE2" t="n">
-        <v>142763.0109233712</v>
+        <v>176136.2509760247</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956178697460898e-06</v>
+        <v>5.469704560541218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>129137.9095300275</v>
+        <v>159326.054391703</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.95121059188081</v>
+        <v>107.2571604732163</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.4975058808989</v>
+        <v>146.7539788113548</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6654632144051</v>
+        <v>132.7479850441418</v>
       </c>
       <c r="AD3" t="n">
-        <v>82951.21059188081</v>
+        <v>107257.1604732163</v>
       </c>
       <c r="AE3" t="n">
-        <v>113497.5058808989</v>
+        <v>146753.9788113548</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442125560858465e-06</v>
+        <v>6.368833485727424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>102665.4632144051</v>
+        <v>132747.9850441418</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.47094144089399</v>
+        <v>105.0837065608998</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.4721363236538</v>
+        <v>143.7801632825055</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8333920850788</v>
+        <v>130.0579862955887</v>
       </c>
       <c r="AD2" t="n">
-        <v>81470.94144089399</v>
+        <v>105083.7065608998</v>
       </c>
       <c r="AE2" t="n">
-        <v>111472.1363236538</v>
+        <v>143780.1632825055</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444976000864477e-06</v>
+        <v>6.566655929057118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100833.3920850788</v>
+        <v>130057.9862955887</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.95265334242585</v>
+        <v>102.3948262618395</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.0265034483015</v>
+        <v>140.1011186323064</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.71660557537292</v>
+        <v>126.7300645032318</v>
       </c>
       <c r="AD3" t="n">
-        <v>78952.65334242585</v>
+        <v>102394.8262618395</v>
       </c>
       <c r="AE3" t="n">
-        <v>108026.5034483015</v>
+        <v>140101.1186323064</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.617454192314502e-06</v>
+        <v>6.895425980933861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97716.60557537293</v>
+        <v>126730.0645032318</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.18922584965988</v>
+        <v>90.0308594860208</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.66775122068435</v>
+        <v>123.1841938299223</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.6327939112288</v>
+        <v>111.4276672609287</v>
       </c>
       <c r="AD2" t="n">
-        <v>69189.22584965988</v>
+        <v>90030.8594860208</v>
       </c>
       <c r="AE2" t="n">
-        <v>94667.75122068435</v>
+        <v>123184.1938299223</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.904769105001074e-06</v>
+        <v>8.316136304119866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>85632.7939112288</v>
+        <v>111427.6672609287</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.52146499575734</v>
+        <v>94.37980574213717</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.22706782838841</v>
+        <v>129.1346139595056</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.75697574093611</v>
+        <v>116.8101876448136</v>
       </c>
       <c r="AD2" t="n">
-        <v>72521.46499575734</v>
+        <v>94379.80574213716</v>
       </c>
       <c r="AE2" t="n">
-        <v>99227.06782838842</v>
+        <v>129134.6139595056</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847077438979659e-06</v>
+        <v>7.810897257606509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89756.97574093612</v>
+        <v>116810.1876448136</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.86450243432877</v>
+        <v>96.91862647073721</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.48696208427113</v>
+        <v>132.6083404852401</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.75557482572826</v>
+        <v>119.9523865863389</v>
       </c>
       <c r="AD2" t="n">
-        <v>66864.50243432877</v>
+        <v>96918.6264707372</v>
       </c>
       <c r="AE2" t="n">
-        <v>91486.96208427113</v>
+        <v>132608.3404852401</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841692957672875e-06</v>
+        <v>8.554699841744328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82755.57482572825</v>
+        <v>119952.3865863389</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.14741883228433</v>
+        <v>119.6937689604877</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1342107684012</v>
+        <v>163.7702952080748</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1459632845744</v>
+        <v>148.1402880865143</v>
       </c>
       <c r="AD2" t="n">
-        <v>84147.41883228433</v>
+        <v>119693.7689604877</v>
       </c>
       <c r="AE2" t="n">
-        <v>115134.2107684012</v>
+        <v>163770.2952080748</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.308739973770806e-06</v>
+        <v>6.25604533132589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>104145.9632845744</v>
+        <v>148140.2880865143</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.7294665767504</v>
+        <v>103.3986758859132</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.089373586085</v>
+        <v>141.4746299746832</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.67803687895432</v>
+        <v>127.9724898508279</v>
       </c>
       <c r="AD3" t="n">
-        <v>79729.46657675039</v>
+        <v>103398.6758859132</v>
       </c>
       <c r="AE3" t="n">
-        <v>109089.373586085</v>
+        <v>141474.6299746832</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602786381507088e-06</v>
+        <v>6.812017595962705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98678.03687895431</v>
+        <v>127972.4898508279</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.7265462385127</v>
+        <v>95.03997233833698</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.92996021407217</v>
+        <v>130.0378830209204</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.34717102875474</v>
+        <v>117.6272499747534</v>
       </c>
       <c r="AD2" t="n">
-        <v>65726.5462385127</v>
+        <v>95039.97233833699</v>
       </c>
       <c r="AE2" t="n">
-        <v>89929.96021407217</v>
+        <v>130037.8830209204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.742279765560144e-06</v>
+        <v>8.579426152926221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.98046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81347.17102875475</v>
+        <v>117627.2499747534</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.60625344111975</v>
+        <v>98.31158342841285</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4478114705925</v>
+        <v>134.5142456476548</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.57489753378049</v>
+        <v>121.676394835008</v>
       </c>
       <c r="AD2" t="n">
-        <v>75606.25344111974</v>
+        <v>98311.58342841285</v>
       </c>
       <c r="AE2" t="n">
-        <v>103447.8114705925</v>
+        <v>134514.2456476548</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762003077951615e-06</v>
+        <v>7.373474042150239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93574.89753378049</v>
+        <v>121676.394835008</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.70279102968163</v>
+        <v>98.40812101697476</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.5798984582007</v>
+        <v>134.6463326352629</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.69437832467661</v>
+        <v>121.7958756259042</v>
       </c>
       <c r="AD3" t="n">
-        <v>75702.79102968164</v>
+        <v>98408.12101697476</v>
       </c>
       <c r="AE3" t="n">
-        <v>103579.8984582007</v>
+        <v>134646.3326352629</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.76215234799227e-06</v>
+        <v>7.373766609367021e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93694.37832467661</v>
+        <v>121795.8756259042</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.17771225365182</v>
+        <v>102.3842154396401</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3344389795391</v>
+        <v>140.0866004372568</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.99515217169954</v>
+        <v>126.7169319043413</v>
       </c>
       <c r="AD2" t="n">
-        <v>79177.71225365181</v>
+        <v>102384.2154396401</v>
       </c>
       <c r="AE2" t="n">
-        <v>108334.4389795391</v>
+        <v>140086.6004372568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571837189286457e-06</v>
+        <v>6.867582369521027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97995.15217169955</v>
+        <v>126716.9319043413</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.90800974661491</v>
+        <v>101.1145129326032</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.5971759940908</v>
+        <v>138.3493374518085</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.42369112731798</v>
+        <v>125.1454708599597</v>
       </c>
       <c r="AD3" t="n">
-        <v>77908.0097466149</v>
+        <v>101114.5129326032</v>
       </c>
       <c r="AE3" t="n">
-        <v>106597.1759940908</v>
+        <v>138349.3374518085</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.672143675473186e-06</v>
+        <v>7.060441959580393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96423.69112731799</v>
+        <v>125145.4708599597</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.39578639497083</v>
+        <v>125.5890118585073</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.3152588093007</v>
+        <v>171.8364266209023</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6416621791171</v>
+        <v>155.4365992381907</v>
       </c>
       <c r="AD2" t="n">
-        <v>89395.78639497083</v>
+        <v>125589.0118585074</v>
       </c>
       <c r="AE2" t="n">
-        <v>122315.2588093008</v>
+        <v>171836.4266209023</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066205683822027e-06</v>
+        <v>5.712108628223347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110641.6621791171</v>
+        <v>155436.5992381907</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.72152913017646</v>
+        <v>105.8219886628947</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.8150014552785</v>
+        <v>144.7903134251621</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.1435346497557</v>
+        <v>130.971729126385</v>
       </c>
       <c r="AD3" t="n">
-        <v>81721.52913017647</v>
+        <v>105821.9886628947</v>
       </c>
       <c r="AE3" t="n">
-        <v>111815.0014552785</v>
+        <v>144790.3134251621</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523921365662051e-06</v>
+        <v>6.564798227393526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101143.5346497557</v>
+        <v>130971.729126385</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.60640866768405</v>
+        <v>95.76212429988128</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.7115356246545</v>
+        <v>131.0259631938009</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.09976801419066</v>
+        <v>118.5210291627137</v>
       </c>
       <c r="AD2" t="n">
-        <v>73606.40866768405</v>
+        <v>95762.12429988128</v>
       </c>
       <c r="AE2" t="n">
-        <v>100711.5356246545</v>
+        <v>131025.9631938009</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8206163607555e-06</v>
+        <v>7.658415389467957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>91099.76801419066</v>
+        <v>118521.0291627137</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.34279047641232</v>
+        <v>91.54803714413556</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.24610923468582</v>
+        <v>125.2600632349082</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.06051565161387</v>
+        <v>113.3054186034045</v>
       </c>
       <c r="AD2" t="n">
-        <v>70342.79047641232</v>
+        <v>91548.03714413557</v>
       </c>
       <c r="AE2" t="n">
-        <v>96246.10923468582</v>
+        <v>125260.0632349082</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.89345826750876e-06</v>
+        <v>8.145358184398055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>87060.51565161387</v>
+        <v>113305.4186034045</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.00761075630007</v>
+        <v>88.62372201665939</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.05101332077142</v>
+        <v>121.2588862658191</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.17035520737717</v>
+        <v>109.6861083485568</v>
       </c>
       <c r="AD2" t="n">
-        <v>68007.61075630007</v>
+        <v>88623.72201665939</v>
       </c>
       <c r="AE2" t="n">
-        <v>93051.01332077142</v>
+        <v>121258.8862658191</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887117329473999e-06</v>
+        <v>8.4500324347875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84170.35520737717</v>
+        <v>109686.1083485568</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.75805007125882</v>
+        <v>103.124589893788</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2872621998577</v>
+        <v>141.0996134284371</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.52510945660309</v>
+        <v>127.6332643574163</v>
       </c>
       <c r="AD2" t="n">
-        <v>74758.05007125883</v>
+        <v>103124.589893788</v>
       </c>
       <c r="AE2" t="n">
-        <v>102287.2621998577</v>
+        <v>141099.6134284371</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.497536859435224e-06</v>
+        <v>8.318985726082465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92525.1094566031</v>
+        <v>127633.2643574163</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.17670720017861</v>
+        <v>100.1379684564649</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5965755872659</v>
+        <v>137.0131862174551</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.51858661896861</v>
+        <v>123.9368400241125</v>
       </c>
       <c r="AD2" t="n">
-        <v>77176.70720017861</v>
+        <v>100137.9684564649</v>
       </c>
       <c r="AE2" t="n">
-        <v>105596.5755872659</v>
+        <v>137013.1862174551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680613296650811e-06</v>
+        <v>7.142517907664824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>95518.58661896861</v>
+        <v>123936.8400241125</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.75095266450546</v>
+        <v>99.71221392079175</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.0140394485936</v>
+        <v>136.4306500787829</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.9916469117765</v>
+        <v>123.4099003169204</v>
       </c>
       <c r="AD3" t="n">
-        <v>76750.95266450546</v>
+        <v>99712.21392079175</v>
       </c>
       <c r="AE3" t="n">
-        <v>105014.0394485937</v>
+        <v>136430.6500787829</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.725469401763103e-06</v>
+        <v>7.229564687157843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94991.64691177649</v>
+        <v>123409.9003169204</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.6773417574865</v>
+        <v>122.5524930152878</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.5957629269833</v>
+        <v>167.6817275778546</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.2771497634616</v>
+        <v>151.6784188406534</v>
       </c>
       <c r="AD2" t="n">
-        <v>86677.3417574865</v>
+        <v>122552.4930152878</v>
       </c>
       <c r="AE2" t="n">
-        <v>118595.7629269833</v>
+        <v>167681.7275778546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185822146950577e-06</v>
+        <v>5.977851920292417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107277.1497634616</v>
+        <v>151678.4188406534</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.81115766906159</v>
+        <v>104.6995677312896</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.5693910594275</v>
+        <v>143.2545675888242</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.016803561859</v>
+        <v>129.5825527172339</v>
       </c>
       <c r="AD3" t="n">
-        <v>80811.15766906159</v>
+        <v>104699.5677312896</v>
       </c>
       <c r="AE3" t="n">
-        <v>110569.3910594275</v>
+        <v>143254.5675888242</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>6.682304340751634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>100016.803561859</v>
+        <v>129582.5527172339</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.75954034728434</v>
+        <v>111.3254600915558</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.6034983132335</v>
+        <v>152.3204058298762</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.6659012812681</v>
+        <v>137.7831600805467</v>
       </c>
       <c r="AD2" t="n">
-        <v>83759.54034728435</v>
+        <v>111325.4600915558</v>
       </c>
       <c r="AE2" t="n">
-        <v>114603.4983132335</v>
+        <v>152320.4058298762</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015538850548082e-06</v>
+        <v>7.541633817389666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103665.9012812681</v>
+        <v>137783.1600805467</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.33850746833781</v>
+        <v>92.88115007100278</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.60849315097099</v>
+        <v>127.0840871542386</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.29287555904703</v>
+        <v>114.9553602399082</v>
       </c>
       <c r="AD2" t="n">
-        <v>71338.5074683378</v>
+        <v>92881.15007100278</v>
       </c>
       <c r="AE2" t="n">
-        <v>97608.49315097099</v>
+        <v>127084.0871542386</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.895652580667791e-06</v>
+        <v>8.022252917948422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88292.87555904704</v>
+        <v>114955.3602399082</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.58777264749649</v>
+        <v>97.02513595902272</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0542811165564</v>
+        <v>132.7540714659792</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.31436376090102</v>
+        <v>120.0842092068111</v>
       </c>
       <c r="AD2" t="n">
-        <v>74587.77264749649</v>
+        <v>97025.13595902272</v>
       </c>
       <c r="AE2" t="n">
-        <v>102054.2811165564</v>
+        <v>132754.0714659792</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.799782202558737e-06</v>
+        <v>7.528068127944527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92314.36376090102</v>
+        <v>120084.2092068111</v>
       </c>
     </row>
   </sheetData>
